--- a/biostats-1/results/sleep-correlations.xlsx
+++ b/biostats-1/results/sleep-correlations.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\classes\biostats-1\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\Documents\git\classes\biostats-1\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE071CB9-69A3-404B-A13A-43DC1951EFDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F7E397-FB7F-4C9F-AD3A-68BED2B25BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{7F5539C5-B372-468B-B338-5E62423AE5F3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{7F5539C5-B372-468B-B338-5E62423AE5F3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="10by10" sheetId="1" r:id="rId1"/>
+    <sheet name="7by7" sheetId="3" r:id="rId2"/>
+    <sheet name="5by2" sheetId="2" r:id="rId3"/>
+    <sheet name="5by2-alt" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,10 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="11">
-  <si>
-    <t>Correlations</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="10">
   <si>
     <t>BodyWt</t>
   </si>
@@ -76,6 +75,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -105,9 +107,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,398 +431,393 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D79828D7-FED7-4F9F-8CD7-9D8966D7A5E0}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K12"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="D2">
+        <v>-0.376</v>
+      </c>
+      <c r="E2">
+        <v>-0.109</v>
+      </c>
+      <c r="F2">
+        <v>-0.307</v>
+      </c>
+      <c r="G2">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="H2">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="I2">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="J2">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="K2">
+        <v>0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="C3">
-        <v>0.93400000000000005</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>-0.376</v>
+        <v>-0.36899999999999999</v>
       </c>
       <c r="E3">
-        <v>-0.109</v>
+        <v>-0.105</v>
       </c>
       <c r="F3">
-        <v>-0.307</v>
+        <v>-0.35799999999999998</v>
       </c>
       <c r="G3">
-        <v>0.30199999999999999</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="H3">
-        <v>0.65100000000000002</v>
+        <v>0.747</v>
       </c>
       <c r="I3">
-        <v>5.8999999999999997E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="J3">
-        <v>0.33800000000000002</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="K3">
-        <v>0.13400000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.14599999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.93400000000000005</v>
+        <v>-0.376</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>-0.36899999999999999</v>
       </c>
       <c r="D4">
-        <v>-0.36899999999999999</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>-0.105</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="F4">
-        <v>-0.35799999999999998</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="G4">
-        <v>0.50900000000000001</v>
+        <v>-0.38400000000000001</v>
       </c>
       <c r="H4">
-        <v>0.747</v>
+        <v>-0.59499999999999997</v>
       </c>
       <c r="I4">
-        <v>3.4000000000000002E-2</v>
+        <v>-0.318</v>
       </c>
       <c r="J4">
-        <v>0.36799999999999999</v>
+        <v>-0.54400000000000004</v>
       </c>
       <c r="K4">
-        <v>0.14599999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-0.48399999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.376</v>
+        <v>-0.109</v>
       </c>
       <c r="C5">
-        <v>-0.36899999999999999</v>
+        <v>-0.105</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="E5">
-        <v>0.51400000000000001</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.96299999999999997</v>
+        <v>0.72699999999999998</v>
       </c>
       <c r="G5">
-        <v>-0.38400000000000001</v>
+        <v>-0.29599999999999999</v>
       </c>
       <c r="H5">
-        <v>-0.59499999999999997</v>
+        <v>-0.45100000000000001</v>
       </c>
       <c r="I5">
-        <v>-0.318</v>
+        <v>-0.44700000000000001</v>
       </c>
       <c r="J5">
-        <v>-0.54400000000000004</v>
+        <v>-0.53700000000000003</v>
       </c>
       <c r="K5">
-        <v>-0.48399999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-0.57899999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.109</v>
+        <v>-0.307</v>
       </c>
       <c r="C6">
-        <v>-0.105</v>
+        <v>-0.35799999999999998</v>
       </c>
       <c r="D6">
-        <v>0.51400000000000001</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.72699999999999998</v>
       </c>
       <c r="F6">
-        <v>0.72699999999999998</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>-0.29599999999999999</v>
+        <v>-0.41</v>
       </c>
       <c r="H6">
-        <v>-0.45100000000000001</v>
+        <v>-0.63100000000000001</v>
       </c>
       <c r="I6">
-        <v>-0.44700000000000001</v>
+        <v>-0.39600000000000002</v>
       </c>
       <c r="J6">
-        <v>-0.53700000000000003</v>
+        <v>-0.64200000000000002</v>
       </c>
       <c r="K6">
-        <v>-0.57899999999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-0.58799999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.307</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="C7">
-        <v>-0.35799999999999998</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="D7">
-        <v>0.96299999999999997</v>
+        <v>-0.38400000000000001</v>
       </c>
       <c r="E7">
-        <v>0.72699999999999998</v>
+        <v>-0.29599999999999999</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>-0.41</v>
       </c>
       <c r="G7">
-        <v>-0.41</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>-0.63100000000000001</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="I7">
-        <v>-0.39600000000000002</v>
+        <v>-0.10299999999999999</v>
       </c>
       <c r="J7">
-        <v>-0.64200000000000002</v>
+        <v>0.36</v>
       </c>
       <c r="K7">
-        <v>-0.58799999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.30199999999999999</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="C8">
-        <v>0.50900000000000001</v>
+        <v>0.747</v>
       </c>
       <c r="D8">
-        <v>-0.38400000000000001</v>
+        <v>-0.59499999999999997</v>
       </c>
       <c r="E8">
-        <v>-0.29599999999999999</v>
+        <v>-0.45100000000000001</v>
       </c>
       <c r="F8">
-        <v>-0.41</v>
+        <v>-0.63100000000000001</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="H8">
-        <v>0.61499999999999999</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>-0.10299999999999999</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="J8">
-        <v>0.36</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="K8">
-        <v>6.2E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.379</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.65100000000000002</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="C9">
-        <v>0.747</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="D9">
-        <v>-0.59499999999999997</v>
+        <v>-0.318</v>
       </c>
       <c r="E9">
-        <v>-0.45100000000000001</v>
+        <v>-0.44700000000000001</v>
       </c>
       <c r="F9">
-        <v>-0.63100000000000001</v>
+        <v>-0.39600000000000002</v>
       </c>
       <c r="G9">
-        <v>0.61499999999999999</v>
+        <v>-0.10299999999999999</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="I9">
-        <v>0.20100000000000001</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>0.63800000000000001</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="K9">
-        <v>0.379</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.91600000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.8999999999999997E-2</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="C10">
-        <v>3.4000000000000002E-2</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="D10">
-        <v>-0.318</v>
+        <v>-0.54400000000000004</v>
       </c>
       <c r="E10">
-        <v>-0.44700000000000001</v>
+        <v>-0.53700000000000003</v>
       </c>
       <c r="F10">
-        <v>-0.39600000000000002</v>
+        <v>-0.64200000000000002</v>
       </c>
       <c r="G10">
-        <v>-0.10299999999999999</v>
+        <v>0.36</v>
       </c>
       <c r="H10">
-        <v>0.20100000000000001</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="J10">
-        <v>0.61799999999999999</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>0.91600000000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.78700000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.33800000000000002</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="C11">
-        <v>0.36799999999999999</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="D11">
-        <v>-0.54400000000000004</v>
+        <v>-0.48399999999999999</v>
       </c>
       <c r="E11">
-        <v>-0.53700000000000003</v>
+        <v>-0.57899999999999996</v>
       </c>
       <c r="F11">
-        <v>-0.64200000000000002</v>
+        <v>-0.58799999999999997</v>
       </c>
       <c r="G11">
-        <v>0.36</v>
+        <v>6.2E-2</v>
       </c>
       <c r="H11">
-        <v>0.63800000000000001</v>
+        <v>0.379</v>
       </c>
       <c r="I11">
-        <v>0.61799999999999999</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0.78700000000000003</v>
       </c>
       <c r="K11">
-        <v>0.78700000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="C12">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="D12">
-        <v>-0.48399999999999999</v>
-      </c>
-      <c r="E12">
-        <v>-0.57899999999999996</v>
-      </c>
-      <c r="F12">
-        <v>-0.58799999999999997</v>
-      </c>
-      <c r="G12">
-        <v>6.2E-2</v>
-      </c>
-      <c r="H12">
-        <v>0.379</v>
-      </c>
-      <c r="I12">
-        <v>0.91600000000000004</v>
-      </c>
-      <c r="J12">
-        <v>0.78700000000000003</v>
-      </c>
-      <c r="K12">
         <v>1</v>
       </c>
     </row>
@@ -823,403 +827,423 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C6DC285-474E-40F9-8C9C-5A0DF31604F6}">
-  <dimension ref="A1:K12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C4C8A5A-07A7-47D2-8F37-91CC0FA9A4FC}">
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:K12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="12.21875" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4">
         <v>0.93400000000000005</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D2" s="4">
         <v>-0.376</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E2" s="4">
         <v>-0.109</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F2" s="4">
         <v>-0.307</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G2" s="4">
         <v>0.30199999999999999</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H2" s="4">
         <v>0.65100000000000002</v>
       </c>
-      <c r="I3" s="1">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0.13400000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4">
+        <v>-0.36899999999999999</v>
+      </c>
+      <c r="E3" s="4">
+        <v>-0.105</v>
+      </c>
+      <c r="F3" s="4">
+        <v>-0.35799999999999998</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.747</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.93400000000000005</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="B4" s="4">
+        <v>-0.376</v>
+      </c>
+      <c r="C4" s="4">
         <v>-0.36899999999999999</v>
       </c>
-      <c r="E4" s="1">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="G4" s="4">
+        <v>-0.38400000000000001</v>
+      </c>
+      <c r="H4" s="4">
+        <v>-0.59499999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>-0.109</v>
+      </c>
+      <c r="C5" s="4">
         <v>-0.105</v>
       </c>
-      <c r="F4" s="1">
+      <c r="D5" s="4">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="G5" s="4">
+        <v>-0.29599999999999999</v>
+      </c>
+      <c r="H5" s="4">
+        <v>-0.45100000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>-0.307</v>
+      </c>
+      <c r="C6" s="4">
         <v>-0.35799999999999998</v>
       </c>
-      <c r="G4" s="1">
+      <c r="D6" s="4">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4">
+        <v>-0.41</v>
+      </c>
+      <c r="H6" s="4">
+        <v>-0.63100000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="C7" s="4">
         <v>0.50900000000000001</v>
       </c>
-      <c r="H4" s="1">
+      <c r="D7" s="4">
+        <v>-0.38400000000000001</v>
+      </c>
+      <c r="E7" s="4">
+        <v>-0.29599999999999999</v>
+      </c>
+      <c r="F7" s="4">
+        <v>-0.41</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4">
+        <v>0.61499999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="C8" s="4">
         <v>0.747</v>
       </c>
-      <c r="I4" s="1">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.36799999999999999</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0.14599999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>-0.376</v>
-      </c>
-      <c r="C5" s="1">
-        <v>-0.36899999999999999</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.51400000000000001</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.96299999999999997</v>
-      </c>
-      <c r="G5" s="1">
-        <v>-0.38400000000000001</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="D8" s="4">
         <v>-0.59499999999999997</v>
       </c>
-      <c r="I5" s="1">
-        <v>-0.318</v>
-      </c>
-      <c r="J5" s="1">
-        <v>-0.54400000000000004</v>
-      </c>
-      <c r="K5" s="1">
-        <v>-0.48399999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>-0.109</v>
-      </c>
-      <c r="C6" s="1">
-        <v>-0.105</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.51400000000000001</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.72699999999999998</v>
-      </c>
-      <c r="G6" s="1">
-        <v>-0.29599999999999999</v>
-      </c>
-      <c r="H6" s="1">
+      <c r="E8" s="4">
         <v>-0.45100000000000001</v>
       </c>
-      <c r="I6" s="1">
-        <v>-0.44700000000000001</v>
-      </c>
-      <c r="J6" s="1">
-        <v>-0.53700000000000003</v>
-      </c>
-      <c r="K6" s="1">
-        <v>-0.57899999999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-0.307</v>
-      </c>
-      <c r="C7" s="1">
-        <v>-0.35799999999999998</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.96299999999999997</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.72699999999999998</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>-0.41</v>
-      </c>
-      <c r="H7" s="1">
+      <c r="F8" s="4">
         <v>-0.63100000000000001</v>
       </c>
-      <c r="I7" s="1">
-        <v>-0.39600000000000002</v>
-      </c>
-      <c r="J7" s="1">
-        <v>-0.64200000000000002</v>
-      </c>
-      <c r="K7" s="1">
-        <v>-0.58799999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.50900000000000001</v>
-      </c>
-      <c r="D8" s="1">
-        <v>-0.38400000000000001</v>
-      </c>
-      <c r="E8" s="1">
-        <v>-0.29599999999999999</v>
-      </c>
-      <c r="F8" s="1">
-        <v>-0.41</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
+      <c r="G8" s="4">
         <v>0.61499999999999999</v>
       </c>
-      <c r="I8" s="1">
-        <v>-0.10299999999999999</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0.36</v>
-      </c>
-      <c r="K8" s="1">
-        <v>6.2E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.65100000000000002</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.747</v>
-      </c>
-      <c r="D9" s="1">
-        <v>-0.59499999999999997</v>
-      </c>
-      <c r="E9" s="1">
-        <v>-0.45100000000000001</v>
-      </c>
-      <c r="F9" s="1">
-        <v>-0.63100000000000001</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.61499999999999999</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0.63800000000000001</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0.379</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="D10" s="1">
-        <v>-0.318</v>
-      </c>
-      <c r="E10" s="1">
-        <v>-0.44700000000000001</v>
-      </c>
-      <c r="F10" s="1">
-        <v>-0.39600000000000002</v>
-      </c>
-      <c r="G10" s="1">
-        <v>-0.10299999999999999</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="I10" s="1">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0.61799999999999999</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0.91600000000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.36799999999999999</v>
-      </c>
-      <c r="D11" s="1">
-        <v>-0.54400000000000004</v>
-      </c>
-      <c r="E11" s="1">
-        <v>-0.53700000000000003</v>
-      </c>
-      <c r="F11" s="1">
-        <v>-0.64200000000000002</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0.36</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0.63800000000000001</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.61799999999999999</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0.78700000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="D12" s="1">
-        <v>-0.48399999999999999</v>
-      </c>
-      <c r="E12" s="1">
-        <v>-0.57899999999999996</v>
-      </c>
-      <c r="F12" s="1">
-        <v>-0.58799999999999997</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6.2E-2</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.379</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.91600000000000004</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0.78700000000000003</v>
-      </c>
-      <c r="K12" s="1">
-        <v>1</v>
-      </c>
+      <c r="H8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C6DC285-474E-40F9-8C9C-5A0DF31604F6}">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.747</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-0.109</v>
+      </c>
+      <c r="C4" s="2">
+        <v>-0.105</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>-0.307</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-0.35799999999999998</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>-0.376</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-0.36899999999999999</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K13">
+    <sortCondition descending="1" ref="B2:B13"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19EF8D73-9BF7-4A45-BE9E-1E64EF821758}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="12.21875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.747</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.50900000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.30199999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>-0.45100000000000001</v>
+      </c>
+      <c r="C4" s="4">
+        <v>-0.29599999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>-0.59499999999999997</v>
+      </c>
+      <c r="C5" s="4">
+        <v>-0.38400000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>-0.63100000000000001</v>
+      </c>
+      <c r="C6" s="4">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K12">
+    <sortCondition descending="1" ref="B2:B12"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>